--- a/media/files/gfhs.xlsx
+++ b/media/files/gfhs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DENEBOLA\python\django\HtmlHack\media\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.34\python\django\HtmlHack\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5742A02E-CC30-45D9-959E-2CC469CE0284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED25CC3C-DCA5-4B89-8415-E27053AF15F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="540" windowWidth="23145" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="137">
   <si>
     <t>ALMV</t>
   </si>
@@ -142,9 +142,6 @@
     <t>QRF1</t>
   </si>
   <si>
-    <t>QUIRV</t>
-  </si>
-  <si>
     <t>RADH</t>
   </si>
   <si>
@@ -215,6 +212,231 @@
   </si>
   <si>
     <t>H2NB</t>
+  </si>
+  <si>
+    <t>IZ020</t>
+  </si>
+  <si>
+    <t>IZL020</t>
+  </si>
+  <si>
+    <t>IZ026</t>
+  </si>
+  <si>
+    <t>IZL025</t>
+  </si>
+  <si>
+    <t>IZ010</t>
+  </si>
+  <si>
+    <t>IZ034</t>
+  </si>
+  <si>
+    <t>IZL024</t>
+  </si>
+  <si>
+    <t>IZ036</t>
+  </si>
+  <si>
+    <t>IZL028</t>
+  </si>
+  <si>
+    <t>IZ021</t>
+  </si>
+  <si>
+    <t>IZL027</t>
+  </si>
+  <si>
+    <t>IZ013</t>
+  </si>
+  <si>
+    <t>IZL019</t>
+  </si>
+  <si>
+    <t>IZ039</t>
+  </si>
+  <si>
+    <t>IZL026</t>
+  </si>
+  <si>
+    <t>IZ029</t>
+  </si>
+  <si>
+    <t>IZL021</t>
+  </si>
+  <si>
+    <t>IZ001</t>
+  </si>
+  <si>
+    <t>IZL023</t>
+  </si>
+  <si>
+    <t>IZ014</t>
+  </si>
+  <si>
+    <t>IZL017</t>
+  </si>
+  <si>
+    <t>IZ033</t>
+  </si>
+  <si>
+    <t>IZL015</t>
+  </si>
+  <si>
+    <t>IZ006</t>
+  </si>
+  <si>
+    <t>IZL022</t>
+  </si>
+  <si>
+    <t>IZ038</t>
+  </si>
+  <si>
+    <t>IZ037</t>
+  </si>
+  <si>
+    <t>IZL013</t>
+  </si>
+  <si>
+    <t>IZL075</t>
+  </si>
+  <si>
+    <t>IZL041</t>
+  </si>
+  <si>
+    <t>IZL054</t>
+  </si>
+  <si>
+    <t>IZL057</t>
+  </si>
+  <si>
+    <t>IZL069</t>
+  </si>
+  <si>
+    <t>IZL066</t>
+  </si>
+  <si>
+    <t>IZL061</t>
+  </si>
+  <si>
+    <t>IZL047</t>
+  </si>
+  <si>
+    <t>IZL078</t>
+  </si>
+  <si>
+    <t>IZL045</t>
+  </si>
+  <si>
+    <t>IZL040</t>
+  </si>
+  <si>
+    <t>IZL067</t>
+  </si>
+  <si>
+    <t>IZL074</t>
+  </si>
+  <si>
+    <t>IZL046</t>
+  </si>
+  <si>
+    <t>IZL059</t>
+  </si>
+  <si>
+    <t>IZL032</t>
+  </si>
+  <si>
+    <t>IZL052</t>
+  </si>
+  <si>
+    <t>IZL035</t>
+  </si>
+  <si>
+    <t>IZL036</t>
+  </si>
+  <si>
+    <t>IZL037</t>
+  </si>
+  <si>
+    <t>IZL031</t>
+  </si>
+  <si>
+    <t>IZL029</t>
+  </si>
+  <si>
+    <t>IZL063</t>
+  </si>
+  <si>
+    <t>IZL034</t>
+  </si>
+  <si>
+    <t>IZL030</t>
+  </si>
+  <si>
+    <t>IZL016</t>
+  </si>
+  <si>
+    <t>IZL079</t>
+  </si>
+  <si>
+    <t>IZL039</t>
+  </si>
+  <si>
+    <t>IZL062</t>
+  </si>
+  <si>
+    <t>IZL055</t>
+  </si>
+  <si>
+    <t>IZL070</t>
+  </si>
+  <si>
+    <t>IZL071</t>
+  </si>
+  <si>
+    <t>IZL044</t>
+  </si>
+  <si>
+    <t>IZL043</t>
+  </si>
+  <si>
+    <t>IZL068</t>
+  </si>
+  <si>
+    <t>IZL060</t>
+  </si>
+  <si>
+    <t>IZL073</t>
+  </si>
+  <si>
+    <t>IZL053</t>
+  </si>
+  <si>
+    <t>IZL076</t>
+  </si>
+  <si>
+    <t>IZL056</t>
+  </si>
+  <si>
+    <t>IZL077</t>
+  </si>
+  <si>
+    <t>IZL064</t>
+  </si>
+  <si>
+    <t>IZL065</t>
+  </si>
+  <si>
+    <t>IZL048</t>
+  </si>
+  <si>
+    <t>IZL033</t>
+  </si>
+  <si>
+    <t>IZL038</t>
+  </si>
+  <si>
+    <t>QRFV</t>
   </si>
 </sst>
 </file>
@@ -271,10 +493,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,508 +778,615 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9.109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B51" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B52" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B54" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B55" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B56" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B57" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B58" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B59" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B60" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B61" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B62" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B63" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B64" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B65" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B66" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B67" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B68" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B69" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B70" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B71" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B72" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B73" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B74" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>62</v>
+      <c r="B75" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1065,141 +1395,141 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5788CF70-A50A-41DD-8730-5173DDD3414A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>50</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>57</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>58</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>60</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>61</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
